--- a/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_2_fts.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_2_fts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Kano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F05DB-1FBA-4DFE-ADAE-EC56E67110F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B7342-FFB6-42C4-A5FE-55E732F7FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -502,12 +502,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>ng_lf_tas_2406_2_fts</t>
-  </si>
-  <si>
-    <t>(June 2024) - 2. Kano - TAS1 LF FTS Form V2</t>
-  </si>
-  <si>
     <t>d_eu</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>Enter the school ID</t>
   </si>
   <si>
-    <t>ng_tas_fts_2406</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
@@ -539,13 +530,67 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>(June 2024) Kano - 2. TAS1 LF FTS Form V3</t>
+  </si>
+  <si>
+    <t>ng_tas_fts_2406_3</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2406_2_fts_kn_v3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +646,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1098,7 +1149,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1196,10 +1247,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="39"/>
       <c r="G3" s="39"/>
@@ -1243,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1268,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="29"/>
@@ -1336,7 +1387,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>107</v>
@@ -1944,11 +1995,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2027,10 +2078,10 @@
         <v>131</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1">
@@ -2038,10 +2089,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="16" customFormat="1">
@@ -2049,10 +2100,10 @@
         <v>131</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="16" customFormat="1">
@@ -2060,10 +2111,10 @@
         <v>131</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="16" customFormat="1">
@@ -2071,10 +2122,10 @@
         <v>131</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="16" customFormat="1">
@@ -2082,10 +2133,10 @@
         <v>131</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1">
@@ -2093,255 +2144,345 @@
         <v>131</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1">
+      <c r="A13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1">
+      <c r="A14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="16" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="16" customFormat="1">
+      <c r="A17" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1">
+      <c r="A19" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="16" customFormat="1">
+      <c r="A20" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="16" customFormat="1">
+      <c r="A21" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="16" customFormat="1">
+      <c r="A22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="16" customFormat="1">
+      <c r="A23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="16" customFormat="1">
+      <c r="A24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="16" customFormat="1">
+      <c r="A25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="16" customFormat="1">
+      <c r="A26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="16" customFormat="1">
+      <c r="A27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C27" s="42" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+    <row r="28" spans="1:3" s="6" customFormat="1">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4"/>
@@ -3500,14 +3641,90 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="4"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="4"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="4"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="4"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="4"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="4"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="4"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="4"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="4"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="4"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="4"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="4"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="4"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="4"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="4"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:C29">
-    <sortCondition ref="B22:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C44">
+    <sortCondition ref="B37:B44"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3516,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3544,10 +3761,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>97</v>

--- a/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_2_fts.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Kano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B7342-FFB6-42C4-A5FE-55E732F7FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3C08D-B28A-4C02-AC2B-9B14B998B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -535,12 +535,6 @@
     <t>(June 2024) Kano - 2. TAS1 LF FTS Form V3</t>
   </si>
   <si>
-    <t>ng_tas_fts_2406_3</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_2406_2_fts_kn_v3</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -584,6 +578,12 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2406_2_fts_kn_v31</t>
+  </si>
+  <si>
+    <t>ng_tas_fts_2406_31</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1387,7 +1387,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>107</v>
@@ -2144,10 +2144,10 @@
         <v>131</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1">
@@ -2155,10 +2155,10 @@
         <v>131</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1">
@@ -2166,10 +2166,10 @@
         <v>131</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1">
@@ -2177,10 +2177,10 @@
         <v>131</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="16" customFormat="1">
@@ -2188,10 +2188,10 @@
         <v>131</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="16" customFormat="1">
@@ -2199,10 +2199,10 @@
         <v>131</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="16" customFormat="1">
@@ -2210,10 +2210,10 @@
         <v>131</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1">
@@ -2221,10 +2221,10 @@
         <v>131</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="16" customFormat="1">
@@ -2232,10 +2232,10 @@
         <v>131</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="16" customFormat="1">
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="16" customFormat="1">
@@ -2254,10 +2254,10 @@
         <v>131</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="16" customFormat="1">
@@ -2265,10 +2265,10 @@
         <v>131</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="16" customFormat="1">
@@ -2276,10 +2276,10 @@
         <v>131</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="16" customFormat="1">
@@ -2287,10 +2287,10 @@
         <v>131</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="16" customFormat="1">
@@ -2298,10 +2298,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="16" customFormat="1">
@@ -3733,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3764,7 +3764,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>97</v>
